--- a/biology/Botanique/Pulsatilla_pratensis/Pulsatilla_pratensis.xlsx
+++ b/biology/Botanique/Pulsatilla_pratensis/Pulsatilla_pratensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pulsatille des prés (Pulsatilla pratensis) est une espèce de plante vivace de la famille des Renonculacées. Elle est répandue en Europe centrale et orientale. Lors de sa floraison, elle développe une tige velue au bout de laquelle on trouve une fleur rouge ou violette en forme de cloche. Elle est toxique, mais la toxine peut être éliminée par la chaleur ou le séchage. Elle a des propriétés thérapeutiques.
 </t>
@@ -511,16 +523,18 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (2 juin 2017)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (2 juin 2017) :
 sous-espèce Pulsatilla pratensis subsp. hungarica Soó
 sous-espèce Pulsatilla pratensis subsp. nigricans (Störcke) Zämelis
 sous-espèce Pulsatilla pratensis subsp. pratensis
 sous-espèce Pulsatilla pratensis subsp. ucrainica
-Selon NCBI  (2 juin 2017)[6] :
+Selon NCBI  (2 juin 2017) :
 sous-espèce Pulsatilla pratensis subsp. nigricans
-Selon Tropicos                                           (2 juin 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (2 juin 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Pulsatilla pratensis subsp. bohemica Skalický
 sous-espèce Pulsatilla pratensis subsp. nigricans Zamels</t>
         </is>
